--- a/HRV parameters.xlsx
+++ b/HRV parameters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>31/3103008</t>
   </si>
@@ -128,91 +128,19 @@
     <t>fft_interpolation</t>
   </si>
   <si>
-    <t>lomb_bands</t>
-  </si>
-  <si>
-    <t>lomb_peak</t>
-  </si>
-  <si>
-    <t>lomb_abs</t>
-  </si>
-  <si>
-    <t>lomb_rel</t>
-  </si>
-  <si>
-    <t>lomb_log</t>
-  </si>
-  <si>
-    <t>lomb_norm</t>
-  </si>
-  <si>
-    <t>lomb_ratio</t>
-  </si>
-  <si>
-    <t>lomb_total</t>
-  </si>
-  <si>
-    <t>lomb_plot</t>
-  </si>
-  <si>
-    <t>lomb_nfft</t>
-  </si>
-  <si>
-    <t>lomb_ma</t>
-  </si>
-  <si>
-    <t>ar_bands</t>
-  </si>
-  <si>
-    <t>ar_peak</t>
-  </si>
-  <si>
-    <t>ar_abs</t>
-  </si>
-  <si>
-    <t>ar_rel</t>
-  </si>
-  <si>
-    <t>ar_log</t>
-  </si>
-  <si>
-    <t>ar_norm</t>
-  </si>
-  <si>
-    <t>ar_ratio</t>
-  </si>
-  <si>
-    <t>ar_total</t>
-  </si>
-  <si>
-    <t>ar_nfft</t>
-  </si>
-  <si>
-    <t>ar_order</t>
-  </si>
-  <si>
-    <t>ar_resampling_frequency</t>
-  </si>
-  <si>
-    <t>ar_interpolation</t>
-  </si>
-  <si>
-    <t>ar_plot</t>
-  </si>
-  <si>
-    <t>ReturnTuple(ulf=None, vlf=(0.0, 0.04), lf=(0.04, 0.15), hf=(0.15, 0.4))</t>
-  </si>
-  <si>
-    <t>(0.021484375, 0.0400390625, 0.1708984375)</t>
-  </si>
-  <si>
-    <t>(17.75611747084012, 29.957155344018144, 75.6649282086926)</t>
-  </si>
-  <si>
-    <t>(14.391616447261027, 24.28075226862792, 61.32763128411105)</t>
-  </si>
-  <si>
-    <t>(2.876730102789064, 3.399768205677114, 4.326314753333842)</t>
+    <t>ReturnTuple(ulf=[0.0, 0.003], vlf=[0.003, 0.04], lf=[0.04, 0.15], hf=[0.15, 0.4])</t>
+  </si>
+  <si>
+    <t>(0.0029296875, 0.021484375, 0.0400390625, 0.1708984375)</t>
+  </si>
+  <si>
+    <t>(0.2973963009040759, 17.45872116993604, 29.957155344018144, 75.6649282086926)</t>
+  </si>
+  <si>
+    <t>(0.24104444580717133, 14.150572001453854, 24.28075226862792, 61.32763128411105)</t>
+  </si>
+  <si>
+    <t>(-1.2126896831501952, 2.8598393043118464, 3.399768205677114, 4.326314753333842)</t>
   </si>
   <si>
     <t>(28.362587004892788, 71.63741299510721)</t>
@@ -227,121 +155,34 @@
     <t>cubic</t>
   </si>
   <si>
-    <t>(0.03376470588235294, 0.11254901960784314, 0.2347450980392157)</t>
-  </si>
-  <si>
-    <t>(14.374855222294212, 44.458245201859356, 83.5046385254551)</t>
-  </si>
-  <si>
-    <t>(10.09911730253302, 31.234334288251375, 58.6665484092156)</t>
-  </si>
-  <si>
-    <t>(2.6654805151401195, 3.794550438613159, 4.424902181516954)</t>
-  </si>
-  <si>
-    <t>(34.74307854502459, 65.2569214549754)</t>
-  </si>
-  <si>
-    <t>(0.0, 0.0400390625, 0.150390625)</t>
-  </si>
-  <si>
-    <t>(1915.0589538479896, 3563.526062301486, 6642.1709916430855)</t>
-  </si>
-  <si>
-    <t>(15.79983090672544, 29.400196324473963, 54.7999727688006)</t>
-  </si>
-  <si>
-    <t>(7.5575036864401, 8.178505800595968, 8.801194145604581)</t>
-  </si>
-  <si>
-    <t>(34.917027650984004, 65.08297234901599)</t>
-  </si>
-  <si>
-    <t>(0.015625, 0.078125, 0.24609375)</t>
-  </si>
-  <si>
-    <t>(83.91875085463941, 191.27344968337582, 391.8684254910551)</t>
-  </si>
-  <si>
-    <t>(12.58037839142109, 28.674072823335873, 58.74554878524303)</t>
-  </si>
-  <si>
-    <t>(4.42984907902301, 5.253704077913853, 5.9709261341901305)</t>
+    <t>(0.0029296875, 0.015625, 0.078125, 0.24609375)</t>
+  </si>
+  <si>
+    <t>(4.513716340993214, 79.4050345136462, 191.27344968337582, 391.8684254910551)</t>
+  </si>
+  <si>
+    <t>(0.676657587761222, 11.903720803659867, 28.674072823335873, 58.74554878524303)</t>
+  </si>
+  <si>
+    <t>(1.5071208365877007, 4.374561773215827, 5.253704077913853, 5.9709261341901305)</t>
   </si>
   <si>
     <t>(32.800499814245306, 67.1995001857547)</t>
   </si>
   <si>
-    <t>(0.03215686274509804, 0.10129411764705883, 0.29584313725490197)</t>
-  </si>
-  <si>
-    <t>(6.086845644364422, 24.087056317755536, 45.75765866111076)</t>
-  </si>
-  <si>
-    <t>(8.01622618369073, 31.722061445930922, 60.26171237037834)</t>
-  </si>
-  <si>
-    <t>(1.806129990945547, 3.181674613965467, 3.823359180139958)</t>
-  </si>
-  <si>
-    <t>(34.486584024351494, 65.51341597564851)</t>
-  </si>
-  <si>
-    <t>(0.0, 0.0400390625, 0.259765625)</t>
-  </si>
-  <si>
-    <t>(1925.0832350347498, 3709.7016214811897, 8037.834924879697)</t>
-  </si>
-  <si>
-    <t>(14.079841799259384, 27.13233952814946, 58.787818672591165)</t>
-  </si>
-  <si>
-    <t>(7.562724484766198, 8.21870672689041, 8.991915037958215)</t>
-  </si>
-  <si>
-    <t>(31.578549314071882, 68.42145068592811)</t>
-  </si>
-  <si>
-    <t>(0.013671875, 0.0400390625, 0.3994140625)</t>
-  </si>
-  <si>
-    <t>(39.62414682617251, 5.158909081738912, 5.755458592360464)</t>
-  </si>
-  <si>
-    <t>(78.40386132829317, 10.207876374583899, 11.388262297122921)</t>
-  </si>
-  <si>
-    <t>(3.679438700764951, 1.6407251388738262, 1.7501487249001295)</t>
+    <t>(0.0029296875, 0.013671875, 0.0400390625, 0.3994140625)</t>
+  </si>
+  <si>
+    <t>(1.8804203157049564, 37.74372651046756, 5.158909081738912, 5.755458592360464)</t>
+  </si>
+  <si>
+    <t>(3.72076689293042, 74.68309443536276, 10.207876374583897, 11.38826229712292)</t>
+  </si>
+  <si>
+    <t>(0.6314953240368091, 3.630819276731574, 1.6407251388738262, 1.7501487249001295)</t>
   </si>
   <si>
     <t>(47.267136638445805, 52.73286336155419)</t>
-  </si>
-  <si>
-    <t>(0.011254901960784314, 0.10129411764705883, 0.38266666666666665)</t>
-  </si>
-  <si>
-    <t>(14.714197902520642, 40.74451952693761, 94.78771200507487)</t>
-  </si>
-  <si>
-    <t>(9.793376094126788, 27.11846110438932, 63.08816280148388)</t>
-  </si>
-  <si>
-    <t>(2.6888128713666557, 3.707321340505762, 4.55163978065992)</t>
-  </si>
-  <si>
-    <t>(30.06260508395291, 69.9373949160471)</t>
-  </si>
-  <si>
-    <t>(1967.452556009298, 3605.0741369306666, 5935.835697266082)</t>
-  </si>
-  <si>
-    <t>(17.095851601646274, 31.325691829088477, 51.57845656926525)</t>
-  </si>
-  <si>
-    <t>(7.584494866155477, 8.190097614536903, 8.68876310543215)</t>
-  </si>
-  <si>
-    <t>(37.78543346054143, 62.214566539458566)</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +844,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1025,13 +866,13 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1039,13 +880,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1053,13 +894,13 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1067,13 +908,13 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1081,13 +922,13 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1095,13 +936,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1137,13 +978,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1165,13 +1006,13 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1193,340 +1034,13 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21">
-        <v>0.5324044985633576</v>
-      </c>
-      <c r="C21">
-        <v>0.5264049128070232</v>
-      </c>
-      <c r="D21">
-        <v>0.429850227050065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22">
-        <v>142.3377389496087</v>
-      </c>
-      <c r="C22">
-        <v>75.93156062323072</v>
-      </c>
-      <c r="D22">
-        <v>150.2464294345331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24">
-        <v>256</v>
-      </c>
-      <c r="C24">
-        <v>256</v>
-      </c>
-      <c r="D24">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32">
-        <v>0.5365001995258738</v>
-      </c>
-      <c r="C32">
-        <v>0.4615299587701738</v>
-      </c>
-      <c r="D32">
-        <v>0.6073406207303018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33">
-        <v>12120.75600779256</v>
-      </c>
-      <c r="C33">
-        <v>13672.61978139564</v>
-      </c>
-      <c r="D33">
-        <v>11508.36239020605</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34">
-        <v>4096</v>
-      </c>
-      <c r="C34">
-        <v>4096</v>
-      </c>
-      <c r="D34">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35">
-        <v>16</v>
-      </c>
-      <c r="C35">
-        <v>16</v>
-      </c>
-      <c r="D35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
